--- a/Data/collapsed database manual cases/campeche_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/campeche_collapsed_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7da8e9ec94b4821/Documents/ITAM/RA - Horacio/Monitoring Brokers/Data/States/campeche/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{6434F5CE-8450-1C44-8F5D-F01E76A58BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{803701F6-07E1-4D4E-A968-3890FE9BB3E7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAE1CD1-530A-1642-9A2E-328D961B13D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4480" yWindow="500" windowWidth="31360" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="266">
   <si>
     <t>uniqueid</t>
   </si>
@@ -719,6 +719,108 @@
   </si>
   <si>
     <t>chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://www.ieec.org.mx/Documentacion/elecciones/2009/L-Ayuntamientos-MR-electos.pdf</t>
+  </si>
+  <si>
+    <t>PRI_PVEM_PANAL</t>
+  </si>
+  <si>
+    <t>ROQUE JACINTO SANCHEZ GOLIB</t>
+  </si>
+  <si>
+    <t>https://pad.undp.org.mx/files/g/820dcf0c1242364677545293.44594fd/banco/archivo/37/0/analisis-ejecutivo-de-las-elecciones-locales-2018-nueva-reconfiguracion-politico-territorial-de-mexico.pdf</t>
+  </si>
+  <si>
+    <t>PAN_MC</t>
+  </si>
+  <si>
+    <t>ELISEO FERNANDEZ MONTUFAR</t>
+  </si>
+  <si>
+    <t>https://www.lajornadamaya.mx/campeche/121722/eliseo-fernandez-el-activo-mas-fuerte-del-pan-pedro-camara</t>
+  </si>
+  <si>
+    <t>OSCAR ROMAN ROSAS GONZALEZ</t>
+  </si>
+  <si>
+    <t>https://sil.gobernacion.gob.mx/Librerias/pp_PerfilLegislador.php?Referencia=9215538</t>
+  </si>
+  <si>
+    <t>DANIEL MARTIN LEON CRUZ</t>
+  </si>
+  <si>
+    <t>https://www.lajornadamaya.mx/opinion/108746/cargada-descartada</t>
+  </si>
+  <si>
+    <t>SANY ARELY BAAS CAUICH</t>
+  </si>
+  <si>
+    <t>https://pri.org.mx/bancoinformacion/files/Archivos/PDF/34557-1-19_03_25.pdf</t>
+  </si>
+  <si>
+    <t>MARITZA DIAZ DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/labarranoticias/posts/palizadase-registra-maritza-díaz-domínguez-como-aspirante-a-la-precandidatura-de/10160002167745360/</t>
+  </si>
+  <si>
+    <t>LUIS FELIPE MORA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/DKBUseRMi2C/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/1899336266980564/photos/a.1899504640297060/2790942024486646/?_rdr</t>
+  </si>
+  <si>
+    <t>SEYBAPLAYA</t>
+  </si>
+  <si>
+    <t>PAN_PRI_PRD</t>
+  </si>
+  <si>
+    <t>JUANITA DEL ROSARIO CORTES MOO</t>
+  </si>
+  <si>
+    <t>EMILIO LARA CALDERON</t>
+  </si>
+  <si>
+    <t>ANGELA DEL CARMEN CAMARA DAMAS</t>
+  </si>
+  <si>
+    <t>KARLA DEL ROSARIO UC TUZ</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER FARIAS BAILON</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ExpresoDeCampeche/posts/pese-a-traicionar-a-su-partido-juanita-enfrenta-demanda-la-ex-alcaldesa-de-calki/1005837154913788/</t>
+  </si>
+  <si>
+    <t>https://www.ieec.org.mx/micrositios/assets/estadisticas/2021/Archivos/6%20INTEGRACIÓN/AYUNTAMIENTOS/Pdf/Hecelchakán_Integracion-Ayuntamientos%202021.pdf</t>
+  </si>
+  <si>
+    <t>https://sil.gobernacion.gob.mx/Librerias/pp_PerfilLegislador.php?Referencia=9229260</t>
+  </si>
+  <si>
+    <t>https://pri.org.mx/bancoinformacion/files/Archivos/PDF/38227-1-20_42_04.pdf#:~:text=V%2C%20VII%2C%20VIII%2C%20IX%20y,180%20de%20los%20Estatutos%20del</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ElBurilCampeche/videos/la-ex-alcaldesa-de-tenabo-karla-del-rosario-uc-tuz-es-una-de-las-mujeres-que-bus/1248277019630599/</t>
+  </si>
+  <si>
+    <t>https://sil.gobernacion.gob.mx/Librerias/pp_PerfilLegislador.php?Referencia=9228770#Perfil</t>
+  </si>
+  <si>
+    <t>CINTHYA GELITZI VELAZQUEZ RIVERA</t>
+  </si>
+  <si>
+    <t>https://www.ieec.org.mx/micrositios/assets/estadisticas/2021/Archivos/6%20INTEGRACIÓN/AYUNTAMIENTOS/Pdf/Seybaplaya_Integracion-Ayuntamientos%202021.pdf</t>
+  </si>
+  <si>
+    <t>PES</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Elecciones_estatales_de_Campeche_de_2018#Hecelchakán</t>
   </si>
 </sst>
 </file>
@@ -1095,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S78"/>
+  <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="179" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="136" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4823,6 +4925,422 @@
         <v>45</v>
       </c>
     </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>4001</v>
+      </c>
+      <c r="B79">
+        <v>2021</v>
+      </c>
+      <c r="C79" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" t="s">
+        <v>232</v>
+      </c>
+      <c r="F79" t="s">
+        <v>233</v>
+      </c>
+      <c r="H79" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>4002</v>
+      </c>
+      <c r="B80">
+        <v>2021</v>
+      </c>
+      <c r="C80" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" t="s">
+        <v>235</v>
+      </c>
+      <c r="F80" t="s">
+        <v>236</v>
+      </c>
+      <c r="H80" t="s">
+        <v>32</v>
+      </c>
+      <c r="I80" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>4003</v>
+      </c>
+      <c r="B81">
+        <v>2021</v>
+      </c>
+      <c r="C81" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" t="s">
+        <v>73</v>
+      </c>
+      <c r="E81" t="s">
+        <v>232</v>
+      </c>
+      <c r="F81" t="s">
+        <v>238</v>
+      </c>
+      <c r="H81" t="s">
+        <v>21</v>
+      </c>
+      <c r="I81" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>4004</v>
+      </c>
+      <c r="B82">
+        <v>2021</v>
+      </c>
+      <c r="C82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" t="s">
+        <v>232</v>
+      </c>
+      <c r="F82" t="s">
+        <v>240</v>
+      </c>
+      <c r="H82" t="s">
+        <v>21</v>
+      </c>
+      <c r="I82" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>4005</v>
+      </c>
+      <c r="B83">
+        <v>2021</v>
+      </c>
+      <c r="C83" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" t="s">
+        <v>107</v>
+      </c>
+      <c r="E83" t="s">
+        <v>264</v>
+      </c>
+      <c r="F83" t="s">
+        <v>108</v>
+      </c>
+      <c r="H83" t="s">
+        <v>264</v>
+      </c>
+      <c r="I83" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>4006</v>
+      </c>
+      <c r="B84">
+        <v>2021</v>
+      </c>
+      <c r="C84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F84" t="s">
+        <v>242</v>
+      </c>
+      <c r="H84" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>4007</v>
+      </c>
+      <c r="B85">
+        <v>2021</v>
+      </c>
+      <c r="C85" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" t="s">
+        <v>142</v>
+      </c>
+      <c r="E85" t="s">
+        <v>232</v>
+      </c>
+      <c r="F85" t="s">
+        <v>244</v>
+      </c>
+      <c r="H85" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>4010</v>
+      </c>
+      <c r="B86">
+        <v>2021</v>
+      </c>
+      <c r="C86" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" t="s">
+        <v>199</v>
+      </c>
+      <c r="E86" t="s">
+        <v>232</v>
+      </c>
+      <c r="F86" t="s">
+        <v>246</v>
+      </c>
+      <c r="H86" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>4011</v>
+      </c>
+      <c r="B87">
+        <v>2021</v>
+      </c>
+      <c r="C87" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" t="s">
+        <v>212</v>
+      </c>
+      <c r="E87" t="s">
+        <v>235</v>
+      </c>
+      <c r="F87" t="s">
+        <v>219</v>
+      </c>
+      <c r="H87" t="s">
+        <v>32</v>
+      </c>
+      <c r="I87" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>4001</v>
+      </c>
+      <c r="B88">
+        <v>2024</v>
+      </c>
+      <c r="C88" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" t="s">
+        <v>26</v>
+      </c>
+      <c r="E88" t="s">
+        <v>250</v>
+      </c>
+      <c r="F88" t="s">
+        <v>251</v>
+      </c>
+      <c r="H88" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>4005</v>
+      </c>
+      <c r="B89">
+        <v>2024</v>
+      </c>
+      <c r="C89" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" t="s">
+        <v>107</v>
+      </c>
+      <c r="E89" t="s">
+        <v>250</v>
+      </c>
+      <c r="F89" t="s">
+        <v>108</v>
+      </c>
+      <c r="H89" t="s">
+        <v>21</v>
+      </c>
+      <c r="I89" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>4006</v>
+      </c>
+      <c r="B90">
+        <v>2024</v>
+      </c>
+      <c r="C90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" t="s">
+        <v>123</v>
+      </c>
+      <c r="E90" t="s">
+        <v>250</v>
+      </c>
+      <c r="F90" t="s">
+        <v>252</v>
+      </c>
+      <c r="H90" t="s">
+        <v>21</v>
+      </c>
+      <c r="I90" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>4007</v>
+      </c>
+      <c r="B91">
+        <v>2024</v>
+      </c>
+      <c r="C91" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" t="s">
+        <v>142</v>
+      </c>
+      <c r="E91" t="s">
+        <v>250</v>
+      </c>
+      <c r="F91" t="s">
+        <v>253</v>
+      </c>
+      <c r="H91" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>4008</v>
+      </c>
+      <c r="B92">
+        <v>2024</v>
+      </c>
+      <c r="C92" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" t="s">
+        <v>163</v>
+      </c>
+      <c r="E92" t="s">
+        <v>250</v>
+      </c>
+      <c r="F92" t="s">
+        <v>254</v>
+      </c>
+      <c r="H92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I92" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>4011</v>
+      </c>
+      <c r="B93">
+        <v>2024</v>
+      </c>
+      <c r="C93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" t="s">
+        <v>212</v>
+      </c>
+      <c r="E93" t="s">
+        <v>250</v>
+      </c>
+      <c r="F93" t="s">
+        <v>255</v>
+      </c>
+      <c r="H93" t="s">
+        <v>32</v>
+      </c>
+      <c r="I93" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>4012</v>
+      </c>
+      <c r="B94">
+        <v>2024</v>
+      </c>
+      <c r="C94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" t="s">
+        <v>249</v>
+      </c>
+      <c r="E94" t="s">
+        <v>250</v>
+      </c>
+      <c r="F94" t="s">
+        <v>262</v>
+      </c>
+      <c r="H94" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" t="s">
+        <v>263</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S78" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
